--- a/Assignment Spreadsheet Models.xlsx
+++ b/Assignment Spreadsheet Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Business Analytics\Advanced Data Analytics\QMBE_3730_Jorge_Zelaya_Velasquez_2025\QMBE_3730_Jorge_Zelaya_Velasquez_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF5D35B-EB8E-4F04-8B73-7A218F8CDC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F89050-BB08-4704-99F4-EE54D96611B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11918" yWindow="0" windowWidth="12165" windowHeight="15082" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Fixed Costs</t>
   </si>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -1670,7 +1670,13 @@
         <f>B19</f>
         <v>-5200</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <f>B19</f>
+        <v>-5200</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B5" s="2"/>
@@ -1678,10 +1684,16 @@
         <v>6000</v>
       </c>
       <c r="F5" s="9">
-        <f t="dataTable" ref="F5:F19" dt2D="0" dtr="0" r1="B12"/>
+        <f t="dataTable" ref="F5:F19" dt2D="0" dtr="0" r1="B12" ca="1"/>
         <v>-7600</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="H5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="dataTable" ref="I5:I19" dt2D="0" dtr="0" r1="B12"/>
+        <v>-8000</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1705,7 +1717,12 @@
       <c r="F6" s="9">
         <v>-5200</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="H6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-6000</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1724,7 +1741,12 @@
       <c r="F7" s="9">
         <v>-2800</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-4000</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1748,7 +1770,12 @@
       <c r="F8" s="9">
         <v>-400</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="H8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-2000</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1767,7 +1794,12 @@
       <c r="F9" s="9">
         <v>2000</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="H9" s="1">
+        <v>25000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1791,7 +1823,12 @@
       <c r="F10" s="9">
         <v>4400</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="H10" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2000</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1809,7 +1846,12 @@
       <c r="F11" s="9">
         <v>6800</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="H11" s="1">
+        <v>35000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4000</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1833,7 +1875,12 @@
       <c r="F12" s="9">
         <v>9200</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="H12" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6000</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1851,7 +1898,12 @@
       <c r="F13" s="9">
         <v>11600</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="H13" s="1">
+        <v>45000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8000</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1872,7 +1924,12 @@
       <c r="F14" s="9">
         <v>14000</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="H14" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10000</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1897,7 +1954,12 @@
       <c r="F15" s="9">
         <v>16400</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="H15" s="1">
+        <v>55000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12000</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1917,7 +1979,12 @@
       <c r="F16" s="9">
         <v>18800</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="H16" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14000</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1942,7 +2009,12 @@
       <c r="F17" s="9">
         <v>21200</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="H17" s="1">
+        <v>65000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16000</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1962,7 +2034,12 @@
       <c r="F18" s="9">
         <v>23600</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="H18" s="1">
+        <v>70000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>18000</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1987,7 +2064,12 @@
       <c r="F19" s="9">
         <v>26000</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="H19" s="1">
+        <v>75000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>20000</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2593,4 +2675,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046665BC0B94AC747A4DE01F8B2E3895D" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="36fa26d1bac06f44ba23146a4e907a05">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="927bdbf4-418c-4053-9ad2-f3d07d483475" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="253042e08fd8bb293610d9243d61147c" ns3:_="">
+    <xsd:import namespace="927bdbf4-418c-4053-9ad2-f3d07d483475"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="927bdbf4-418c-4053-9ad2-f3d07d483475" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="12" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="927bdbf4-418c-4053-9ad2-f3d07d483475" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172127D4-E7D5-4873-B99D-E9B792489A91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F2D8640-2499-438D-BEC1-04CCF8D840B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="927bdbf4-418c-4053-9ad2-f3d07d483475"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58317DF0-EB16-4354-919B-B404B42E283B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="927bdbf4-418c-4053-9ad2-f3d07d483475"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Assignment Spreadsheet Models.xlsx
+++ b/Assignment Spreadsheet Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Business Analytics\Advanced Data Analytics\QMBE_3730_Jorge_Zelaya_Velasquez_2025\QMBE_3730_Jorge_Zelaya_Velasquez_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F89050-BB08-4704-99F4-EE54D96611B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80089007-1525-4504-8661-E4148215ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2678,12 +2678,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="927bdbf4-418c-4053-9ad2-f3d07d483475" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2843,17 +2842,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="927bdbf4-418c-4053-9ad2-f3d07d483475" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172127D4-E7D5-4873-B99D-E9B792489A91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58317DF0-EB16-4354-919B-B404B42E283B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="927bdbf4-418c-4053-9ad2-f3d07d483475"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2877,17 +2885,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58317DF0-EB16-4354-919B-B404B42E283B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172127D4-E7D5-4873-B99D-E9B792489A91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="927bdbf4-418c-4053-9ad2-f3d07d483475"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>